--- a/Files/Vaccine_April 3, 2017.xlsx
+++ b/Files/Vaccine_April 3, 2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="307">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">10 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">58160-0812-52</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">$72.73</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">$90.00</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">$31.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -221,8 +221,7 @@
     <t xml:space="preserve">$95.23</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -234,8 +233,7 @@
     <t xml:space="preserve">$12.30</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -244,7 +242,7 @@
     <t xml:space="preserve">$23.20</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -283,7 +281,7 @@
     <t xml:space="preserve">$10.26</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -298,7 +296,7 @@
     <t xml:space="preserve">$193.63</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -337,7 +335,7 @@
     <t xml:space="preserve">1 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -364,7 +362,7 @@
     <t xml:space="preserve">$119.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -379,7 +377,7 @@
     <t xml:space="preserve">$67.03</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -394,8 +392,7 @@
     <t xml:space="preserve">$191.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -425,7 +422,7 @@
     <t xml:space="preserve">$86.71</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -449,7 +446,7 @@
     <t xml:space="preserve">25 pack - 1 dose tube</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -464,7 +461,7 @@
     <t xml:space="preserve">$109.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -500,7 +497,7 @@
     <t xml:space="preserve">200-2017-93271</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -536,7 +533,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -551,7 +548,7 @@
     <t xml:space="preserve">$115.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -575,7 +572,7 @@
     <t xml:space="preserve">$64.21</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -593,7 +590,7 @@
     <t xml:space="preserve">$63.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$54.66</t>
@@ -602,10 +599,7 @@
     <t xml:space="preserve">$92.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recombivax HB</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4995-41</t>
@@ -647,13 +641,13 @@
     <t xml:space="preserve">$28.55</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$116.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose vials</t>
@@ -662,7 +656,7 @@
     <t xml:space="preserve">$40.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate </t>
   </si>
   <si>
     <t xml:space="preserve">$69.736</t>
@@ -692,8 +686,7 @@
     <t xml:space="preserve">$106.28</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Adult)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Adult)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -732,7 +725,7 @@
     <t xml:space="preserve">$24.836</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$66.36</t>
@@ -753,12 +746,10 @@
     <t xml:space="preserve">$212.666</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0627-15</t>
@@ -773,13 +764,10 @@
     <t xml:space="preserve">200-2017-92736</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0517-25</t>
@@ -791,8 +779,7 @@
     <t xml:space="preserve">$18.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0417-50</t>
@@ -804,8 +791,7 @@
     <t xml:space="preserve">49281-0417-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0907-52</t>
@@ -820,8 +806,7 @@
     <t xml:space="preserve">200-2017-92735</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0896-11</t>
@@ -836,8 +821,7 @@
     <t xml:space="preserve">19515-0912-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flucelvax Quadrivalent</t>
@@ -885,8 +869,7 @@
     <t xml:space="preserve">$11.94</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria</t>
@@ -895,8 +878,7 @@
     <t xml:space="preserve">33332-0017-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$9.99</t>
@@ -932,12 +914,10 @@
     <t xml:space="preserve">$12.55</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 18 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0317-01</t>
@@ -2443,19 +2423,19 @@
         <v>194</v>
       </c>
       <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>195</v>
-      </c>
-      <c r="C7" t="s">
-        <v>196</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
         <v>197</v>
-      </c>
-      <c r="F7" t="s">
-        <v>198</v>
       </c>
       <c r="G7" s="1">
         <v>42916</v>
@@ -2472,19 +2452,19 @@
         <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
         <v>199</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>200</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>201</v>
-      </c>
-      <c r="F8" t="s">
-        <v>202</v>
       </c>
       <c r="G8" s="1">
         <v>42916</v>
@@ -2501,19 +2481,19 @@
         <v>194</v>
       </c>
       <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
         <v>203</v>
-      </c>
-      <c r="C9" t="s">
-        <v>204</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" t="s">
         <v>205</v>
-      </c>
-      <c r="F9" t="s">
-        <v>206</v>
       </c>
       <c r="G9" s="1">
         <v>42916</v>
@@ -2530,19 +2510,19 @@
         <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="1">
         <v>42916</v>
@@ -2556,7 +2536,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -2568,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
         <v>92</v>
@@ -2585,7 +2565,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -2594,10 +2574,10 @@
         <v>117</v>
       </c>
       <c r="D12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" t="s">
         <v>212</v>
-      </c>
-      <c r="E12" t="s">
-        <v>213</v>
       </c>
       <c r="F12" t="s">
         <v>119</v>
@@ -2614,7 +2594,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
         <v>111</v>
@@ -2626,10 +2606,10 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" t="s">
-        <v>216</v>
       </c>
       <c r="G13" s="1">
         <v>42916</v>
@@ -2643,7 +2623,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
@@ -2655,7 +2635,7 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -2664,10 +2644,10 @@
         <v>42916</v>
       </c>
       <c r="H14" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" t="s">
         <v>218</v>
-      </c>
-      <c r="I14" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15">
@@ -2684,7 +2664,7 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F15" t="s">
         <v>97</v>
@@ -2696,7 +2676,7 @@
         <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
@@ -2713,7 +2693,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -2742,7 +2722,7 @@
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2759,19 +2739,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" t="s">
         <v>224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>225</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
       </c>
       <c r="D18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" t="s">
         <v>226</v>
-      </c>
-      <c r="E18" t="s">
-        <v>227</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -2783,7 +2763,7 @@
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
@@ -2794,13 +2774,13 @@
         <v>131</v>
       </c>
       <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" t="s">
         <v>228</v>
-      </c>
-      <c r="D19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" t="s">
-        <v>229</v>
       </c>
       <c r="F19" t="s">
         <v>134</v>
@@ -2826,10 +2806,10 @@
         <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -2870,7 +2850,7 @@
         <v>158</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
@@ -2887,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F22" t="s">
         <v>169</v>
@@ -2896,10 +2876,10 @@
         <v>42916</v>
       </c>
       <c r="H22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" t="s">
         <v>218</v>
-      </c>
-      <c r="I22" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -2916,7 +2896,7 @@
         <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -2925,10 +2905,10 @@
         <v>42916</v>
       </c>
       <c r="H23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" t="s">
         <v>218</v>
-      </c>
-      <c r="I23" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -2945,10 +2925,10 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" t="s">
         <v>234</v>
-      </c>
-      <c r="F24" t="s">
-        <v>235</v>
       </c>
       <c r="G24" s="1">
         <v>42916</v>
@@ -2974,10 +2954,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G25" s="1">
         <v>42916</v>
@@ -2991,7 +2971,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
         <v>173</v>
@@ -3003,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
         <v>176</v>
@@ -3020,22 +3000,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" t="s">
         <v>239</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>240</v>
-      </c>
-      <c r="C27" t="s">
-        <v>241</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" t="s">
         <v>242</v>
-      </c>
-      <c r="F27" t="s">
-        <v>243</v>
       </c>
       <c r="G27" s="1">
         <v>42916</v>
@@ -3094,22 +3074,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
         <v>244</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>245</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" t="s">
         <v>247</v>
-      </c>
-      <c r="F2" t="s">
-        <v>248</v>
       </c>
       <c r="G2" s="1">
         <v>43159</v>
@@ -3118,27 +3098,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
         <v>250</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" t="s">
         <v>253</v>
-      </c>
-      <c r="F3" t="s">
-        <v>254</v>
       </c>
       <c r="G3" s="1">
         <v>43159</v>
@@ -3147,27 +3127,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
         <v>255</v>
-      </c>
-      <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" t="s">
-        <v>256</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G4" s="1">
         <v>43159</v>
@@ -3176,27 +3156,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="1">
         <v>43159</v>
@@ -3205,27 +3185,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
         <v>259</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
         <v>260</v>
       </c>
-      <c r="D6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>261</v>
-      </c>
-      <c r="F6" t="s">
-        <v>262</v>
       </c>
       <c r="G6" s="1">
         <v>43159</v>
@@ -3234,27 +3214,27 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
         <v>264</v>
-      </c>
-      <c r="C7" t="s">
-        <v>265</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" t="s">
         <v>266</v>
-      </c>
-      <c r="F7" t="s">
-        <v>267</v>
       </c>
       <c r="G7" s="1">
         <v>43159</v>
@@ -3263,27 +3243,27 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" t="s">
         <v>261</v>
-      </c>
-      <c r="F8" t="s">
-        <v>262</v>
       </c>
       <c r="G8" s="1">
         <v>43159</v>
@@ -3292,65 +3272,65 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
         <v>269</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>270</v>
-      </c>
-      <c r="C9" t="s">
-        <v>271</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
         <v>272</v>
-      </c>
-      <c r="F9" t="s">
-        <v>273</v>
       </c>
       <c r="G9" s="1">
         <v>43159</v>
       </c>
       <c r="H9" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" t="s">
         <v>274</v>
-      </c>
-      <c r="I9" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
         <v>269</v>
       </c>
-      <c r="B10" t="s">
-        <v>270</v>
-      </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" t="s">
         <v>277</v>
-      </c>
-      <c r="F10" t="s">
-        <v>278</v>
       </c>
       <c r="G10" s="1">
         <v>43159</v>
       </c>
       <c r="H10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" t="s">
         <v>274</v>
-      </c>
-      <c r="I10" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3400,22 +3380,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
         <v>244</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>245</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G2" s="1">
         <v>43159</v>
@@ -3424,27 +3404,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G3" s="1">
         <v>43159</v>
@@ -3453,27 +3433,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
         <v>255</v>
-      </c>
-      <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" t="s">
-        <v>256</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G4" s="1">
         <v>43159</v>
@@ -3482,27 +3462,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
         <v>259</v>
       </c>
-      <c r="C5" t="s">
-        <v>260</v>
-      </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1">
         <v>43159</v>
@@ -3511,27 +3491,27 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
         <v>264</v>
-      </c>
-      <c r="C6" t="s">
-        <v>265</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G6" s="1">
         <v>43159</v>
@@ -3540,239 +3520,239 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" t="s">
         <v>285</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>286</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>287</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>288</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>289</v>
-      </c>
-      <c r="F7" t="s">
-        <v>290</v>
       </c>
       <c r="G7" s="1">
         <v>43159</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
         <v>285</v>
       </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" t="s">
         <v>293</v>
-      </c>
-      <c r="F8" t="s">
-        <v>294</v>
       </c>
       <c r="G8" s="1">
         <v>43159</v>
       </c>
       <c r="H8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" t="s">
         <v>295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>296</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" t="s">
         <v>293</v>
-      </c>
-      <c r="F9" t="s">
-        <v>294</v>
       </c>
       <c r="G9" s="1">
         <v>43159</v>
       </c>
       <c r="H9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" t="s">
         <v>289</v>
-      </c>
-      <c r="F10" t="s">
-        <v>290</v>
       </c>
       <c r="G10" s="1">
         <v>43159</v>
       </c>
       <c r="H10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
         <v>269</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>270</v>
-      </c>
-      <c r="C11" t="s">
-        <v>271</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G11" s="1">
         <v>43159</v>
       </c>
       <c r="H11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
         <v>269</v>
       </c>
-      <c r="B12" t="s">
-        <v>270</v>
-      </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G12" s="1">
         <v>43159</v>
       </c>
       <c r="H12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" t="s">
         <v>300</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>301</v>
-      </c>
-      <c r="C13" t="s">
-        <v>302</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" t="s">
         <v>303</v>
-      </c>
-      <c r="F13" t="s">
-        <v>304</v>
       </c>
       <c r="G13" s="1">
         <v>43159</v>
       </c>
       <c r="H13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
         <v>300</v>
       </c>
-      <c r="B14" t="s">
-        <v>301</v>
-      </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" t="s">
         <v>306</v>
-      </c>
-      <c r="F14" t="s">
-        <v>307</v>
       </c>
       <c r="G14" s="1">
         <v>43159</v>
       </c>
       <c r="H14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
